--- a/Data/Processed/Angiosperms/missing_powo_ipni/Asteraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Asteraceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commentat. Bot. (Sch. Bip.) 21 (21-22). 1859 [9 Aug 1959] </t>
+          <t>Commentat. Bot. (Sch. Bip.) 21 (21-22). 1859 [9 Aug 1959]</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commentat. Bot. (Sch. Bip.) 34. 1859 [9 Aug 1959] </t>
+          <t>Commentat. Bot. (Sch. Bip.) 34. 1859 [9 Aug 1959]</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commentat. Bot. (Sch. Bip.) 29 (29-30). 1859 [9 Aug 1859] </t>
+          <t>Commentat. Bot. (Sch. Bip.) 29 (29-30). 1859 [9 Aug 1859]</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commentat. Bot. (Sch. Bip.) 26 (26-27). 1859 [9 Aug 1859] </t>
+          <t>Commentat. Bot. (Sch. Bip.) 26 (26-27). 1859 [9 Aug 1859]</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -877,7 +877,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commentat. Bot. (Sch. Bip.) 26. 1859 [9 Aug 1859] </t>
+          <t>Commentat. Bot. (Sch. Bip.) 26. 1859 [9 Aug 1859]</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 24A(6): 73. 1931 </t>
+          <t>Ark. Bot. 24A(6): 73. 1931</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Bot. Munic. 23: 1 (-2; fig.). 1975 </t>
+          <t>Bol. Mus. Bot. Munic. 23: 1 (-2; fig.). 1975</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 382. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 382. 1909</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 367. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 367. 1909</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia 36: [1], fig. 1. 1969 </t>
+          <t>Loefgrenia 36: [1], fig. 1. 1969</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 367. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 367. 1909</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 191. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 191. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Acad. Arts 42: 33. 1906 </t>
+          <t>Proc. Amer. Acad. Arts 42: 33. 1906</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 32, pl. 5, fig. 5. 1899 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 32, pl. 5, fig. 5. 1899</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rev. Hort. [Paris]. 21: 496. 1887 </t>
+          <t>Rev. Hort. [Paris]. 21: 496. 1887</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Biol. Soc. Washington 97: 967. 1984 </t>
+          <t>Proc. Biol. Soc. Washington 97: 967. 1984</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Soc. Argent. Bot. 19: 9, fig. 1980 </t>
+          <t>Bol. Soc. Argent. Bot. 19: 9, fig. 1980</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 560. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 560. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 560. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 560. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Acad. Nac. Ci. 11: 621. 1889 </t>
+          <t>Bol. Acad. Nac. Ci. 11: 621. 1889</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 346. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 346. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 8: 435. 1923 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 8: 435. 1923</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 2(1): 5 (-7; fig. 1, est. II). 1985 [23 Dec 1985] </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 2(1): 5 (-7; fig. 1, est. II). 1985 [23 Dec 1985]</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 200. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 200. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 194. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 194. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Brasil. Bot. 19: 99, fig. 1996 </t>
+          <t>Revista Brasil. Bot. 19: 99, fig. 1996</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 412. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 412. 1910</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kungl. Svenska Vetenskapsakad. Handl. 12(2): 88. 1933 </t>
+          <t>Kungl. Svenska Vetenskapsakad. Handl. 12(2): 88. 1933</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 193. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 193. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 204. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 204. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 56: 271 (-272), fig. 1984 </t>
+          <t>Phytologia 56: 271 (-272), fig. 1984</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 199. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 199. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 47, pl. 4, fig. 13. 1899 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 47, pl. 4, fig. 13. 1899</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 7: 79. 1848 </t>
+          <t>London J. Bot. 7: 79. 1848</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 24, t. 8, fig. 2. 1882 [1 Jul 1882] </t>
+          <t>Fl. Bras. (Martius) 6(3): 24, t. 8, fig. 2. 1882 [1 Jul 1882]</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 8: t. 120. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 8: t. 120. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 23. 1882 [1 Jul 1882] </t>
+          <t>Fl. Bras. (Martius) 6(3): 23. 1882 [1 Jul 1882]</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 88(2): 136 (-138; fig. 1). 2006 [Sep 2006] </t>
+          <t>Phytologia 88(2): 136 (-138; fig. 1). 2006 [Sep 2006]</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Biol. Soc. Washington 77: 138. 1964 </t>
+          <t>Proc. Biol. Soc. Washington 77: 138. 1964</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 402. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 402. 1910</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 400. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 400. 1910</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Inst. Geobiol. La Salle Canoas 3: 5. 1954 </t>
+          <t>Contr. Inst. Geobiol. La Salle Canoas 3: 5. 1954</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inform. Inst. Geobiol. La Salle 2: 17. 1949 </t>
+          <t>Bol. Inform. Inst. Geobiol. La Salle 2: 17. 1949</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Inst. Geobiol. La Salle Canoas no. 8: 38. 1957 </t>
+          <t>Contr. Inst. Geobiol. La Salle Canoas no. 8: 38. 1957</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 30: 181. 1859 </t>
+          <t>Linnaea 30: 181. 1859</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 9, no. 15: 25, pl. 6. 1910 </t>
+          <t>Ark. Bot. 9, no. 15: 25, pl. 6. 1910</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balduinia 16: 30 (-33; fig. 1). 2009 [Apr ? 2009] </t>
+          <t>Balduinia 16: 30 (-33; fig. 1). 2009 [Apr ? 2009]</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inform. Inst. Geobiol. La Salle 2: 11. 1949 </t>
+          <t>Bol. Inform. Inst. Geobiol. La Salle 2: 11. 1949</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 398. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 398. 1910</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revis. Barnadesia 64. 1965 </t>
+          <t>Revis. Barnadesia 64. 1965</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 50(2-3, Beibl. 111): 97. 1913 [19 Aug 1913] </t>
+          <t>Bot. Jahrb. Syst. 50(2-3, Beibl. 111): 97. 1913 [19 Aug 1913]</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 32: 58 (-59), fig. 1981 </t>
+          <t>Mem. New York Bot. Gard. 32: 58 (-59), fig. 1981</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 42. 1923 </t>
+          <t>Contr. Gray Herb. 68: 42. 1923</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 50. 1923 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 50. 1923</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 49: 10, fig. 1981 </t>
+          <t>Phytologia 49: 10, fig. 1981</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 51. 1923 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 51. 1923</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 52. 1923 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 4: 52. 1923</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahresber. Pollichia xx-xi: 419. 1863 </t>
+          <t>Jahresber. Pollichia xx-xi: 419. 1863</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahresber. Pollichia 20-21: 414. 1863 </t>
+          <t>Jahresber. Pollichia 20-21: 414. 1863</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahresber. Pollichia 20-21: 417. 1863 [15 Nov-31 Dec 1863] </t>
+          <t>Jahresber. Pollichia 20-21: 417. 1863 [15 Nov-31 Dec 1863]</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahresber. Pollichia 20-21: 416. 1863 </t>
+          <t>Jahresber. Pollichia 20-21: 416. 1863</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 343. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 343. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 8: t. 79. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 8: t. 79. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 130. 1882 [1 Jul 1882] </t>
+          <t>Fl. Bras. (Martius) 6(3): 130. 1882 [1 Jul 1882]</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 130. 1882 [1 Jul 1882] </t>
+          <t>Fl. Bras. (Martius) 6(3): 130. 1882 [1 Jul 1882]</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itin. Princ. S. Coburgi 2: 30. 1888 </t>
+          <t>Itin. Princ. S. Coburgi 2: 30. 1888</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 305. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 305. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 329. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 329. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 420. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 420. 1910</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atti Accad. Sci. Fis. 5: 11. 1873 </t>
+          <t>Atti Accad. Sci. Fis. 5: 11. 1873</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neue Entdeck. Pflanzenk. 2: 142. 1821 </t>
+          <t>Neue Entdeck. Pflanzenk. 2: 142. 1821</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 135. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 135. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 387. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 387. 1895</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 3: 507. 1826 [Jan-Mar 1826] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 3: 507. 1826 [Jan-Mar 1826]</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 54: 40, fig. 1983 </t>
+          <t>Phytologia 54: 40, fig. 1983</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 51: 180, fig. 1982 </t>
+          <t>Phytologia 51: 180, fig. 1982</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rhodora 71: 369. 1969 </t>
+          <t>Rhodora 71: 369. 1969</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 463. 1846 </t>
+          <t>London J. Bot. 5: 463. 1846</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 462. 1846 </t>
+          <t>London J. Bot. 5: 462. 1846</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Companion Bot. Mag. 2: 48. 1836 </t>
+          <t>Companion Bot. Mag. 2: 48. 1836</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Companion Bot. Mag. 2: 48. 1836 </t>
+          <t>Companion Bot. Mag. 2: 48. 1836</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Biol. Soc. Washington 77: 130. 1964 </t>
+          <t>Proc. Biol. Soc. Washington 77: 130. 1964</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Biol. Soc. Washington 77: 131. 1964 </t>
+          <t>Proc. Biol. Soc. Washington 77: 131. 1964</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Biol. Soc. Washington 77: 135. 1964 </t>
+          <t>Proc. Biol. Soc. Washington 77: 135. 1964</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 28: 282, figs. 1974 </t>
+          <t>Phytologia 28: 282, figs. 1974</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 3: 161. 1922 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 3: 161. 1922</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ernstia 13(3-4): 96 (95-99; fig. 1). 2003 [Dec 2003] </t>
+          <t>Ernstia 13(3-4): 96 (95-99; fig. 1). 2003 [Dec 2003]</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bot. 77: 314. 1939 </t>
+          <t>J. Bot. 77: 314. 1939</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 380. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 380. 1909</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 380. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 380. 1909</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 477. 1846 </t>
+          <t>London J. Bot. 5: 477. 1846</t>
         </is>
       </c>
       <c r="J106" t="b">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 164. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 164. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 333. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 333. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 163. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 163. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 182. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 182. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J110" t="b">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 287. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 287. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 390. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 390. 1909</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hort. Taur. Stirp. 1: 27 (t. 6). 1810 </t>
+          <t>Hort. Taur. Stirp. 1: 27 (t. 6). 1810</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 24A(8): 30. 1932 </t>
+          <t>Ark. Bot. 24A(8): 30. 1932</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 335, sub E. multicrenulatum. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 335, sub E. multicrenulatum. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J115" t="b">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 149. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 149. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 80: 15. 1928 </t>
+          <t>Contr. Gray Herb. 80: 15. 1928</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 357. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 357. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Misc. Inform. Kew 1895(100-101): 105. [Apr-May 1895] </t>
+          <t>Bull. Misc. Inform. Kew 1895(100-101): 105. [Apr-May 1895]</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 18: 457. 1845 </t>
+          <t>Linnaea 18: 457. 1845</t>
         </is>
       </c>
       <c r="J121" t="b">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 474. 1846 </t>
+          <t>London J. Bot. 5: 474. 1846</t>
         </is>
       </c>
       <c r="J122" t="b">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 385. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 385. 1895</t>
         </is>
       </c>
       <c r="J123" t="b">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 331. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 331. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J124" t="b">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 3: 412. 1826 [Jan-Mar 1826] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 3: 412. 1826 [Jan-Mar 1826]</t>
         </is>
       </c>
       <c r="J125" t="b">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 161. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 161. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J126" t="b">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 4: 117. 1845 </t>
+          <t>London J. Bot. 4: 117. 1845</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kungl. Svenska Vetenskapsakad. Handl. 12(2): 38, t. 1. 1933 </t>
+          <t>Kungl. Svenska Vetenskapsakad. Handl. 12(2): 38, t. 1. 1933</t>
         </is>
       </c>
       <c r="J128" t="b">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 150. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 150. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 385. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 385. 1909</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compan. Bot. Mag. 1: 241. 1835 </t>
+          <t>Compan. Bot. Mag. 1: 241. 1835</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 9(85): 379. 1925 [15 Jun 1925] </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 9(85): 379. 1925 [15 Jun 1925]</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 40. 1899 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 40. 1899</t>
         </is>
       </c>
       <c r="J134" t="b">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 386. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 386. 1909</t>
         </is>
       </c>
       <c r="J135" t="b">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kungl. Svenska Vetenskapsakad. Handl. 12(2): 49, f. 9. 1933 </t>
+          <t>Kungl. Svenska Vetenskapsakad. Handl. 12(2): 49, f. 9. 1933</t>
         </is>
       </c>
       <c r="J136" t="b">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iheringia, Bot. 68(1): 159. 2013 [30 Jun 2013] </t>
+          <t>Iheringia, Bot. 68(1): 159. 2013 [30 Jun 2013]</t>
         </is>
       </c>
       <c r="J137" t="b">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 150. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 150. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 160. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 160. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J139" t="b">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 19. 1923 </t>
+          <t>Contr. Gray Herb. 68: 19. 1923</t>
         </is>
       </c>
       <c r="J140" t="b">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 311. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 311. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J141" t="b">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 148. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 148. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 310. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 310. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 22(4-5): 764. 1897 [23 Feb 1897] </t>
+          <t>Bot. Jahrb. Syst. 22(4-5): 764. 1897 [23 Feb 1897]</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 96: 21. 1931 </t>
+          <t>Contr. Gray Herb. 96: 21. 1931</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sellowia 15: 196, fig. 5. 1963 </t>
+          <t>Sellowia 15: 196, fig. 5. 1963</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 359. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 359. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compan. Bot. Mag. 1: 242. 1836 </t>
+          <t>Compan. Bot. Mag. 1: 242. 1836</t>
         </is>
       </c>
       <c r="J148" t="b">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 24A (8): 23. 1932 </t>
+          <t>Ark. Bot. 24A (8): 23. 1932</t>
         </is>
       </c>
       <c r="J149" t="b">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Soc. Argent. Bot. 7: 189, fig. 2. 1959 </t>
+          <t>Bol. Soc. Argent. Bot. 7: 189, fig. 2. 1959</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 322. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 322. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J152" t="b">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 104: 20. 1934 </t>
+          <t>Contr. Gray Herb. 104: 20. 1934</t>
         </is>
       </c>
       <c r="J153" t="b">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 30(2): 202. 1901 [2 Jul 1901] </t>
+          <t>Bot. Jahrb. Syst. 30(2): 202. 1901 [2 Jul 1901]</t>
         </is>
       </c>
       <c r="J154" t="b">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 24A(Hafte 3)6: 35. 1931 [18 Nov 1931] </t>
+          <t>Ark. Bot. 24A(Hafte 3)6: 35. 1931 [18 Nov 1931]</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 26. 1923 </t>
+          <t>Contr. Gray Herb. 68: 26. 1923</t>
         </is>
       </c>
       <c r="J156" t="b">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 331. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 331. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J157" t="b">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 104: 23. 1934 </t>
+          <t>Contr. Gray Herb. 104: 23. 1934</t>
         </is>
       </c>
       <c r="J158" t="b">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 335. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 335. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J159" t="b">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 182. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 182. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J160" t="b">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 27. 1923 </t>
+          <t>Contr. Gray Herb. 68: 27. 1923</t>
         </is>
       </c>
       <c r="J161" t="b">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 165. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 165. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J162" t="b">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 28. 1923 </t>
+          <t>Contr. Gray Herb. 68: 28. 1923</t>
         </is>
       </c>
       <c r="J163" t="b">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 180 (-181). 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 180 (-181). 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J164" t="b">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compan. Bot. Mag. 1: 241. 1836 </t>
+          <t>Compan. Bot. Mag. 1: 241. 1836</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 75: 10. 1925 </t>
+          <t>Contr. Gray Herb. 75: 10. 1925</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 310. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 310. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J167" t="b">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Commiss. Geogr. Estado Sao Paulo 12: 242. 1897 </t>
+          <t>Bol. Commiss. Geogr. Estado Sao Paulo 12: 242. 1897</t>
         </is>
       </c>
       <c r="J168" t="b">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 90: 31. 1930 [1 Aug 1930] </t>
+          <t>Contr. Gray Herb. 90: 31. 1930 [1 Aug 1930]</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 77: 27. 1926 </t>
+          <t>Contr. Gray Herb. 77: 27. 1926</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 6: 443. 1847 </t>
+          <t>London J. Bot. 6: 443. 1847</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 41, tab. 4, fig. 11. 1899 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 32(5): 41, tab. 4, fig. 11. 1899</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 3: 414. 1826 [Jan-Mar 1826] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 3: 414. 1826 [Jan-Mar 1826]</t>
         </is>
       </c>
       <c r="J173" t="b">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 30. 1923 </t>
+          <t>Contr. Gray Herb. 68: 30. 1923</t>
         </is>
       </c>
       <c r="J174" t="b">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verh. Bot. Vereins Prov. Brandenburg 48: 200. 1907 </t>
+          <t>Verh. Bot. Vereins Prov. Brandenburg 48: 200. 1907</t>
         </is>
       </c>
       <c r="J175" t="b">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 153. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 153. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sellowia 15: 191. 1963 </t>
+          <t>Sellowia 15: 191. 1963</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 384. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 384. 1909</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Ilustr. Catarin. Comp: Eupatorieae 645. 1989 </t>
+          <t>Fl. Ilustr. Catarin. Comp: Eupatorieae 645. 1989</t>
         </is>
       </c>
       <c r="J179" t="b">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Ilustr. Catarin. 1(Compos., 4): 645 (1989). </t>
+          <t>Fl. Ilustr. Catarin. 1(Compos., 4): 645 (1989).</t>
         </is>
       </c>
       <c r="J180" t="b">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 4: 116. 1845 </t>
+          <t>London J. Bot. 4: 116. 1845</t>
         </is>
       </c>
       <c r="J181" t="b">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturaleza (Mexico City) (ser. 2) 1: App. 113. 1889 </t>
+          <t>Naturaleza (Mexico City) (ser. 2) 1: App. 113. 1889</t>
         </is>
       </c>
       <c r="J182" t="b">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Mus. Nac. Rio de Janeiro 18: 15, 33. 1916 </t>
+          <t>Arq. Mus. Nac. Rio de Janeiro 18: 15, 33. 1916</t>
         </is>
       </c>
       <c r="J183" t="b">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 68: 32. 1923 </t>
+          <t>Contr. Gray Herb. 68: 32. 1923</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 318. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 318. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 147. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 147. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J186" t="b">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 22(4-5): 751. 1897 [23 Feb 1897] </t>
+          <t>Bot. Jahrb. Syst. 22(4-5): 751. 1897 [23 Feb 1897]</t>
         </is>
       </c>
       <c r="J187" t="b">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bot. 42: 36. 1904 </t>
+          <t>J. Bot. 42: 36. 1904</t>
         </is>
       </c>
       <c r="J188" t="b">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compan. Bot. Mag. 1: 242. 1836 </t>
+          <t>Compan. Bot. Mag. 1: 242. 1836</t>
         </is>
       </c>
       <c r="J189" t="b">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 317 (-318). 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 317 (-318). 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J190" t="b">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 158. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 158. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J191" t="b">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leopoldina 20: 75. 1884 </t>
+          <t>Leopoldina 20: 75. 1884</t>
         </is>
       </c>
       <c r="J192" t="b">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 24A(Hafte 3)6: 30. 1931 [18 Nov 1931] </t>
+          <t>Ark. Bot. 24A(Hafte 3)6: 30. 1931 [18 Nov 1931]</t>
         </is>
       </c>
       <c r="J193" t="b">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 73: 8. 1924 </t>
+          <t>Contr. Gray Herb. 73: 8. 1924</t>
         </is>
       </c>
       <c r="J194" t="b">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 75: 13. 1925 </t>
+          <t>Contr. Gray Herb. 75: 13. 1925</t>
         </is>
       </c>
       <c r="J195" t="b">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 385. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 385. 1909</t>
         </is>
       </c>
       <c r="J196" t="b">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 322 (-323). 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 322 (-323). 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J197" t="b">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 364. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 364. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J198" t="b">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 22(4-5): 784. 1897 [23 Feb 1897] </t>
+          <t>Bot. Jahrb. Syst. 22(4-5): 784. 1897 [23 Feb 1897]</t>
         </is>
       </c>
       <c r="J199" t="b">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 73: 20. 1924 </t>
+          <t>Contr. Gray Herb. 73: 20. 1924</t>
         </is>
       </c>
       <c r="J200" t="b">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 473. 1846 </t>
+          <t>London J. Bot. 5: 473. 1846</t>
         </is>
       </c>
       <c r="J201" t="b">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(2): 292. 1876 [1 Feb 1876] </t>
+          <t>Fl. Bras. (Martius) 6(2): 292. 1876 [1 Feb 1876]</t>
         </is>
       </c>
       <c r="J202" t="b">
@@ -16165,7 +16165,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balduinia 6:14 (-15; fig. 1). 2006 [Feb 2006] </t>
+          <t>Balduinia 6:14 (-15; fig. 1). 2006 [Feb 2006]</t>
         </is>
       </c>
       <c r="J203" t="b">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 6: 226. 1838 [1837 publ. early Jan 1838] </t>
+          <t>Prodr. [A. P. de Candolle] 6: 226. 1838 [1837 publ. early Jan 1838]</t>
         </is>
       </c>
       <c r="J204" t="b">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Brasil. Biol. 7(2): 278, figs. 8-12. 1947 [Jun 1947] </t>
+          <t>Revista Brasil. Biol. 7(2): 278, figs. 8-12. 1947 [Jun 1947]</t>
         </is>
       </c>
       <c r="J205" t="b">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Brasil. Biol. 7(2): 278, fig. 5-7. 1947 </t>
+          <t>Revista Brasil. Biol. 7(2): 278, fig. 5-7. 1947</t>
         </is>
       </c>
       <c r="J206" t="b">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 8: t. 100. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 8: t. 100. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J207" t="b">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notas Mus. La Plata, Bot. 15(74): 46 (fig. 4). 1950 </t>
+          <t>Notas Mus. La Plata, Bot. 15(74): 46 (fig. 4). 1950</t>
         </is>
       </c>
       <c r="J208" t="b">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verh. Bot. Vereins Prov. Brandenburg 48: 203. 1907 </t>
+          <t>Verh. Bot. Vereins Prov. Brandenburg 48: 203. 1907</t>
         </is>
       </c>
       <c r="J209" t="b">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -16721,7 +16721,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 40(2): 166. 1907 [2 Aug 1907] </t>
+          <t>Bot. Jahrb. Syst. 40(2): 166. 1907 [2 Aug 1907]</t>
         </is>
       </c>
       <c r="J210" t="b">
@@ -16789,7 +16789,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 3: 610. 1826 [Jan-Mar 1826] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 3: 610. 1826 [Jan-Mar 1826]</t>
         </is>
       </c>
       <c r="J211" t="b">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 146. 1964 </t>
+          <t>Ciencia (Mexico) 23: 146. 1964</t>
         </is>
       </c>
       <c r="J212" t="b">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 146. 1964 </t>
+          <t>Ciencia (Mexico) 23: 146. 1964</t>
         </is>
       </c>
       <c r="J213" t="b">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 148. 1964 </t>
+          <t>Ciencia (Mexico) 23: 148. 1964</t>
         </is>
       </c>
       <c r="J214" t="b">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 149. 1964 </t>
+          <t>Ciencia (Mexico) 23: 149. 1964</t>
         </is>
       </c>
       <c r="J215" t="b">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 101: 245. 1954 </t>
+          <t>Bull. Soc. Bot. France 101: 245. 1954</t>
         </is>
       </c>
       <c r="J216" t="b">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 149. 1964 </t>
+          <t>Ciencia (Mexico) 23: 149. 1964</t>
         </is>
       </c>
       <c r="J217" t="b">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 21: 24. 1971 </t>
+          <t>Phytologia 21: 24. 1971</t>
         </is>
       </c>
       <c r="J218" t="b">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 348. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 348. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J219" t="b">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 5: 136. 1836 [1-10 Oct 1836] </t>
+          <t>Prodr. [A. P. de Candolle] 5: 136. 1836 [1-10 Oct 1836]</t>
         </is>
       </c>
       <c r="J220" t="b">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sp. Pl. 2: 905. 1753 [1 May 1753] </t>
+          <t>Sp. Pl. 2: 905. 1753 [1 May 1753]</t>
         </is>
       </c>
       <c r="J221" t="b">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 88(2): 145 (-148; fig. 5). 2006 [Sep 2006] </t>
+          <t>Phytologia 88(2): 145 (-148; fig. 5). 2006 [Sep 2006]</t>
         </is>
       </c>
       <c r="J222" t="b">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 41: 117. 1936 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 41: 117. 1936</t>
         </is>
       </c>
       <c r="J224" t="b">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 23A(15): 9 (t. 2, fig. 4). 1931 </t>
+          <t>Ark. Bot. 23A(15): 9 (t. 2, fig. 4). 1931</t>
         </is>
       </c>
       <c r="J225" t="b">
@@ -17959,7 +17959,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Öfvers. Kongl. Vetensk.-Akad. Förh. 13(6-7): 145. 1856 </t>
+          <t>Öfvers. Kongl. Vetensk.-Akad. Förh. 13(6-7): 145. 1856</t>
         </is>
       </c>
       <c r="J226" t="b">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Öfvers. Kongl. Vetensk.-Akad. Förh. 13(6-7): 144. 1856 </t>
+          <t>Öfvers. Kongl. Vetensk.-Akad. Förh. 13(6-7): 144. 1856</t>
         </is>
       </c>
       <c r="J227" t="b">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 23A, no. 15: 5, tab. 1, fig. 2. 1931 </t>
+          <t>Ark. Bot. 23A, no. 15: 5, tab. 1, fig. 2. 1931</t>
         </is>
       </c>
       <c r="J228" t="b">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 6(3): 338. 1884 [1 May 1884] </t>
+          <t>Fl. Bras. (Martius) 6(3): 338. 1884 [1 May 1884]</t>
         </is>
       </c>
       <c r="J229" t="b">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) IV. 280: 1086. 1922 </t>
+          <t>Pflanzenr. (Engler) IV. 280: 1086. 1922</t>
         </is>
       </c>
       <c r="J230" t="b">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -18437,7 +18437,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 7(1): 213. 1838 [late Apr 1838] </t>
+          <t>Prodr. [A. P. de Candolle] 7(1): 213. 1838 [late Apr 1838]</t>
         </is>
       </c>
       <c r="J232" t="b">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonplandia 9: 174 (325). 1861 </t>
+          <t>Bonplandia 9: 174 (325). 1861</t>
         </is>
       </c>
       <c r="J233" t="b">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -18593,7 +18593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Mus. Natl. Hist. Nat. 2: 426. 1803 </t>
+          <t>Ann. Mus. Natl. Hist. Nat. 2: 426. 1803</t>
         </is>
       </c>
       <c r="J234" t="b">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -18739,7 +18739,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -18749,7 +18749,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoehnea 32(3): 364 (-366; figs. 9-16). 2005 [29 Dec 2005] </t>
+          <t>Hoehnea 32(3): 364 (-366; figs. 9-16). 2005 [29 Dec 2005]</t>
         </is>
       </c>
       <c r="J236" t="b">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoehnea 32(3): 366 (-368; figs. 17-23). 2005 [29 Dec 2005] </t>
+          <t>Hoehnea 32(3): 366 (-368; figs. 17-23). 2005 [29 Dec 2005]</t>
         </is>
       </c>
       <c r="J237" t="b">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -18973,7 +18973,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 60: 23. 1913 </t>
+          <t>Bull. Soc. Bot. France 60: 23. 1913</t>
         </is>
       </c>
       <c r="J239" t="b">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 408. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 408. 1910</t>
         </is>
       </c>
       <c r="J240" t="b">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 409. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 409. 1910</t>
         </is>
       </c>
       <c r="J241" t="b">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 8(28): 155 (2000). </t>
+          <t>Bradea 8(28): 155 (2000).</t>
         </is>
       </c>
       <c r="J242" t="b">
@@ -19285,7 +19285,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -19363,7 +19363,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -19451,7 +19451,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 351. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 351. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J245" t="b">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -19529,7 +19529,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 5: 456. 1846 </t>
+          <t>London J. Bot. 5: 456. 1846</t>
         </is>
       </c>
       <c r="J246" t="b">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 6: 460. 1847 </t>
+          <t>London J. Bot. 6: 460. 1847</t>
         </is>
       </c>
       <c r="J247" t="b">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -19685,7 +19685,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 65: 54. 1922 </t>
+          <t>Contr. Gray Herb. 65: 54. 1922</t>
         </is>
       </c>
       <c r="J248" t="b">
